--- a/bh3/545682900698554027_2021-07-10_12-08-21.xlsx
+++ b/bh3/545682900698554027_2021-07-10_12-08-21.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:42:31</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44392.65452546296</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:26:49</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44391.56028935185</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>4906104080</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:46:29</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44391.53228009259</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:45:47</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44391.53179398148</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -835,10 +843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:30:26</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44391.39613425926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -938,10 +944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:33:23</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44389.6065162037</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1017,10 +1021,8 @@
           <t>4890057966</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:54:23</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44388.95443287037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1092,10 +1094,8 @@
           <t>4890049667</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-11 22:54:01</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44388.95417824074</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1167,10 +1167,8 @@
           <t>4888001048</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-11 17:57:24</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44388.74819444444</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1246,10 +1244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-11 17:56:31</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44388.74758101852</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1325,10 +1321,8 @@
           <t>4879156239</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-11 17:47:07</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44388.74105324074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1396,10 +1390,8 @@
           <t>4887091965</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-11 15:16:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44388.63648148148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1471,10 +1463,8 @@
           <t>4887065977</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-11 15:10:09</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44388.63204861111</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1546,10 +1536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-11 14:28:46</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44388.60331018519</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1613,10 +1601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-11 13:11:23</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44388.54957175926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1692,10 +1678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:25:35</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44388.5177662037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1763,10 +1747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:20:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44388.51423611111</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1842,10 +1824,8 @@
           <t>4879156239</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:24:30</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44388.47534722222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1923,10 +1903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:32:22</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44388.43914351852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1995,10 +1973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:19:09</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44388.42996527778</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2074,10 +2050,8 @@
           <t>4884633252</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:21:25</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44388.30653935186</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2141,10 +2115,8 @@
           <t>4879651585</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:17:30</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44388.01215277778</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2220,10 +2192,8 @@
           <t>4879651585</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:26:49</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.97695601852</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2287,10 +2257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:26:36</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.97680555555</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2358,10 +2326,8 @@
           <t>4883180169</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:57:03</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.95628472222</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2425,10 +2391,8 @@
           <t>4879316777</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:55:33</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.95524305556</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2492,10 +2456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:13:13</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.9258449074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2563,10 +2525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:52:33</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.86982638889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2643,10 +2603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:19</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.86896990741</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2714,10 +2672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:21:26</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.84821759259</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2789,10 +2745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:18:34</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.84622685185</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2861,10 +2815,8 @@
           <t>4880446585</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:37:30</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.81770833334</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2936,10 +2888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:37:02</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.81738425926</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3007,10 +2957,8 @@
           <t>4881649362</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:28:55</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44387.81174768518</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3082,10 +3030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:23:51</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44387.80822916667</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3161,10 +3107,8 @@
           <t>4879651585</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:22:26</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44387.80724537037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3240,10 +3184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:07:26</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44387.7968287037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3303,10 +3245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:07:01</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44387.79653935185</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3378,10 +3318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:58:46</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44387.79081018519</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3453,10 +3391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:47:41</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.78311342592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3524,10 +3460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:42:24</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.77944444444</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3591,10 +3525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:15:58</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.76108796296</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3670,10 +3602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:07:07</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.75494212963</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3745,10 +3675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:58:12</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.74875</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3824,10 +3752,8 @@
           <t>4880940521</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:43:52</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.7387962963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3891,10 +3817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:43:30</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.73854166667</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3966,10 +3890,8 @@
           <t>4879082934</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:21:54</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.72354166667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4045,10 +3967,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:17:53</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.72075231482</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4124,10 +4044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:06:39</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.71295138889</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4203,10 +4121,8 @@
           <t>4879082934</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:06:36</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.71291666666</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4270,10 +4186,8 @@
           <t>4880699805</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:05:49</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.71237268519</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4337,10 +4251,8 @@
           <t>4880691887</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:04:24</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.71138888889</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4421,10 +4333,8 @@
           <t>4880651079</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:56:31</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.70591435185</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4496,10 +4406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:51:26</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.70238425926</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4575,10 +4483,8 @@
           <t>4880337598</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:47:12</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.69944444444</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4642,10 +4548,8 @@
           <t>4880588702</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:46:12</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.69875</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4721,10 +4625,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:40:53</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.69505787037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4788,10 +4690,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:39:14</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.69391203704</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4855,10 +4755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:38:40</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.69351851852</v>
       </c>
       <c r="I60" t="n">
         <v>3</v>
@@ -4926,10 +4824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:30:47</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.68804398148</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5006,10 +4902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:27:16</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.68560185185</v>
       </c>
       <c r="I62" t="n">
         <v>5</v>
@@ -5085,10 +4979,8 @@
           <t>4880475513</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:24:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.68369212963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5160,10 +5052,8 @@
           <t>4880368083</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:22:53</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.68255787037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5231,10 +5121,8 @@
           <t>4880446585</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:19:27</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.68017361111</v>
       </c>
       <c r="I65" t="n">
         <v>8</v>
@@ -5310,10 +5198,8 @@
           <t>4880389706</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:09:50</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.67349537037</v>
       </c>
       <c r="I66" t="n">
         <v>5</v>
@@ -5377,10 +5263,8 @@
           <t>4880368083</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:05:23</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.67040509259</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5448,10 +5332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:00:40</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.66712962963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5515,10 +5397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:00:25</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.66695601852</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5582,10 +5462,8 @@
           <t>4880333840</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:59:45</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.66649305556</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
@@ -5657,10 +5535,8 @@
           <t>4880337598</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:59:29</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.66630787037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5736,10 +5612,8 @@
           <t>4880321371</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:55:52</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.6637962963</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5807,10 +5681,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:49:24</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.65930555556</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5874,10 +5746,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:46:49</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.65751157407</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5941,10 +5811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:45:40</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.65671296296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6012,10 +5880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:45:25</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.65653935185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6079,10 +5945,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:45:20</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.65648148148</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6146,10 +6010,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:44:21</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.65579861111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6213,10 +6075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:41:55</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.6541087963</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6288,10 +6148,8 @@
           <t>4880238476</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:39:56</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.65273148148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6355,10 +6213,8 @@
           <t>4880224872</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:37:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.65130787037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6426,10 +6282,8 @@
           <t>4879989688</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:36:45</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.65052083333</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6505,10 +6359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:35:57</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.64996527778</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6576,10 +6428,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:34:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.64910879629</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6651,10 +6501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:33:54</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.64854166667</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6718,10 +6566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:20:20</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.63912037037</v>
       </c>
       <c r="I86" t="n">
         <v>32</v>
@@ -6793,10 +6639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:18:16</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.63768518518</v>
       </c>
       <c r="I87" t="n">
         <v>13</v>
@@ -6872,10 +6716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:14:27</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.63503472223</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6951,10 +6793,8 @@
           <t>4880105494</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:13:43</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.63452546296</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7022,10 +6862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:12:33</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.63371527778</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7089,10 +6927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:08:28</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.63087962963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7164,10 +7000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:07:36</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.63027777777</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7231,10 +7065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:02:51</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.62697916666</v>
       </c>
       <c r="I93" t="n">
         <v>2</v>
@@ -7298,10 +7130,8 @@
           <t>4879989688</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:58:53</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.62422453704</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7377,10 +7207,8 @@
           <t>4880014788</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:58:08</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.62370370371</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7448,10 +7276,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:57:00</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.62291666667</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7523,10 +7349,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:56:41</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.62269675926</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7598,10 +7422,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:56:06</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.62229166667</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7673,10 +7495,8 @@
           <t>4880004497</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:55:28</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.62185185185</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7748,10 +7568,8 @@
           <t>4879989688</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:52:44</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.6199537037</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7827,10 +7645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:49:50</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.61793981482</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7907,10 +7723,8 @@
           <t>4879961703</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:45:37</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.61501157407</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7986,10 +7800,8 @@
           <t>4879186528</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:44:50</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.61446759259</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8057,10 +7869,8 @@
           <t>4879955358</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:44:42</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.614375</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8124,10 +7934,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:43:50</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.61377314815</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8191,10 +7999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:42:55</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.61313657407</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8266,10 +8072,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:42:39</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.61295138889</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8348,10 +8152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:39:49</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.61098379629</v>
       </c>
       <c r="I108" t="n">
         <v>112</v>
@@ -8419,10 +8221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:39:29</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.61075231482</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8494,10 +8294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:37:08</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.60912037037</v>
       </c>
       <c r="I110" t="n">
         <v>4</v>
@@ -8573,10 +8371,8 @@
           <t>4879901302</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:34:34</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.60733796296</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8648,10 +8444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:33:14</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.60641203704</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8715,10 +8509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:32:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.60582175926</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8791,10 +8583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:32:19</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.60577546297</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8870,10 +8660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:30:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.60458333333</v>
       </c>
       <c r="I115" t="n">
         <v>11</v>
@@ -8949,10 +8737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:25:04</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.60074074074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9016,10 +8802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:24:31</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.6003587963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9083,10 +8867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:23:52</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.59990740741</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9150,10 +8932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:20:51</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.5978125</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9229,10 +9009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:20:28</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.5975462963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9301,10 +9079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:18:55</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.59646990741</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9368,10 +9144,8 @@
           <t>4879229734</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:17:57</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.59579861111</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9443,10 +9217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:15:39</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.59420138889</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9510,10 +9282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:15:36</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.59416666667</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9581,10 +9351,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:13:26</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.59266203704</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9652,10 +9420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:10:18</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.59048611111</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9727,10 +9493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:10:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.59039351852</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9798,10 +9562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:09:35</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.58998842593</v>
       </c>
       <c r="I128" t="n">
         <v>6</v>
@@ -9865,10 +9627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:09:01</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.5895949074</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9936,10 +9696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:06:07</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.58758101852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10011,10 +9769,8 @@
           <t>4879651585</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:05:57</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.58746527778</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10078,10 +9834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:02:49</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.58528935185</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10149,10 +9903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:02:27</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.58503472222</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10220,10 +9972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:56:05</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.58061342593</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10287,10 +10037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:49:45</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.57621527778</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10354,10 +10102,8 @@
           <t>4879651585</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:49:35</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.57609953704</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10433,10 +10179,8 @@
           <t>4879649232</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:55</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.57563657407</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10504,10 +10248,8 @@
           <t>4879643736</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:47</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.57554398148</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10576,10 +10318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:48:08</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.57509259259</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10648,10 +10388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:47:55</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.57494212963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10723,10 +10461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:46:13</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.57376157407</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10790,10 +10526,8 @@
           <t>4879576024</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:45:37</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.57334490741</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10870,10 +10604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:45:13</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.57306712963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10950,10 +10682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:45:10</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.57303240741</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11029,10 +10759,8 @@
           <t>4879611874</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:42:21</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.57107638889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11100,10 +10828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:42:17</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.57103009259</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11171,10 +10897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:40:26</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.56974537037</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11234,10 +10958,8 @@
           <t>4879600560</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:40</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.56921296296</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11305,10 +11027,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:39:30</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.56909722222</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11384,10 +11104,8 @@
           <t>4879576024</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:36:09</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.56677083333</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11459,10 +11177,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:36:05</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.56672453704</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11534,10 +11250,8 @@
           <t>4879572576</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:35:47</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.5665162037</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11609,10 +11323,8 @@
           <t>4879568983</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:35:32</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.5663425926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11684,10 +11396,8 @@
           <t>4879559543</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:20</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.56550925926</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11759,10 +11469,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:14</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.56543981482</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11838,10 +11546,8 @@
           <t>4879561916</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:34:03</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.5653125</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11905,10 +11611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:33:59</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.5652662037</v>
       </c>
       <c r="I157" t="n">
         <v>15</v>
@@ -11984,10 +11688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:32:20</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.56412037037</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12047,10 +11749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:31:02</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.56321759259</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12122,10 +11822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:31:01</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.56320601852</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12189,10 +11887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:30:04</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.5625462963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12256,10 +11952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:29:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.56216435185</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12327,10 +12021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:29:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.561875</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12390,10 +12082,8 @@
           <t>4879523820</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:27:34</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.56081018518</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12461,10 +12151,8 @@
           <t>4879019608</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:51</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.5603125</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12528,10 +12216,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:26:15</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.55989583334</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12603,10 +12289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:22:41</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.55741898148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12678,10 +12362,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:21:26</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.55655092592</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12745,10 +12427,8 @@
           <t>4879316777</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:55</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.55619212963</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12820,10 +12500,8 @@
           <t>4879469623</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:20:20</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.55578703704</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12895,10 +12573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:19:34</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.55525462963</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12974,10 +12650,8 @@
           <t>4879145722</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:18:45</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.5546875</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13045,10 +12719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:17:19</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.55369212963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13124,10 +12796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:15:29</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.55241898148</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13191,10 +12861,8 @@
           <t>4879209745</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:56</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.55203703704</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13273,10 +12941,8 @@
           <t>4879156239</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:14:49</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.55195601852</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13355,10 +13021,8 @@
           <t>4879432937</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:12:54</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.550625</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13422,10 +13086,8 @@
           <t>4879426785</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:11:55</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.54994212963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13501,10 +13163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:09:30</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.54826388889</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13580,10 +13240,8 @@
           <t>4879370673</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:08:09</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.54732638889</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13647,10 +13305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:07:43</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.54702546296</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13726,10 +13382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:06:14</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.54599537037</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13805,10 +13459,8 @@
           <t>4879374296</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:36</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.54486111111</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13880,10 +13532,8 @@
           <t>4879370673</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:04:02</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.54446759259</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13959,10 +13609,8 @@
           <t>4879370673</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:03:02</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.54377314815</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14026,10 +13674,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:02:37</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.5434837963</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14105,10 +13751,8 @@
           <t>4879332579</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:01:58</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.5430324074</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14184,10 +13828,8 @@
           <t>4879145722</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:01:57</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.54302083333</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14251,10 +13893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:44</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.54217592593</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14318,10 +13958,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:00:25</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.54195601852</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14385,10 +14023,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:57</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.54163194444</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14456,10 +14092,8 @@
           <t>4879127977</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:03</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.54100694445</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14527,10 +14161,8 @@
           <t>4879261516</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:00</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.54097222222</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14606,10 +14238,8 @@
           <t>4879104078</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:53</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.5408912037</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14685,10 +14315,8 @@
           <t>4879340603</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:38</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.54071759259</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14756,10 +14384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:07</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.54035879629</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14827,10 +14453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:58:03</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.5403125</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14898,10 +14522,8 @@
           <t>4879104078</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:57:55</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.54021990741</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14969,10 +14591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:57:32</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.5399537037</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15040,10 +14660,8 @@
           <t>4879332579</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:57:18</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.53979166667</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -15119,10 +14737,8 @@
           <t>4879327666</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:57:17</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.53978009259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15194,10 +14810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:56:54</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.53951388889</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15269,10 +14883,8 @@
           <t>4879161184</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:56:20</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.53912037037</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15340,10 +14952,8 @@
           <t>4879322218</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:55:43</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.53869212963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15415,10 +15025,8 @@
           <t>4879317087</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:54:58</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.5381712963</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15486,10 +15094,8 @@
           <t>4879316777</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:54:50</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.53807870371</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15557,10 +15163,8 @@
           <t>4879316754</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:54:49</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.53806712963</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15624,10 +15228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:53:46</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.53733796296</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15695,10 +15297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:53:43</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.53730324074</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15766,10 +15366,8 @@
           <t>4879306217</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:59</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.53679398148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15841,10 +15439,8 @@
           <t>4879301531</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:37</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.53653935185</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15912,10 +15508,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:18</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.53631944444</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15991,10 +15585,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:13</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.53626157407</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16054,10 +15646,8 @@
           <t>4879294119</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:52:03</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.53614583334</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16125,10 +15715,8 @@
           <t>4879145722</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:44</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.53592592593</v>
       </c>
       <c r="I215" t="n">
         <v>7</v>
@@ -16204,10 +15792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:35</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.53582175926</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16279,10 +15865,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:28</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.53574074074</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16358,10 +15942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:21</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.53565972222</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16437,10 +16019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.53554398148</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16516,10 +16096,8 @@
           <t>4879284332</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:51:01</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.53542824074</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16587,10 +16165,8 @@
           <t>4879287348</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:50:54</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.53534722222</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16654,10 +16230,8 @@
           <t>4879285043</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:49:55</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.53466435185</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16734,10 +16308,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:49:07</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.5341087963</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16813,10 +16385,8 @@
           <t>4879082934</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:48:54</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.53395833333</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16892,10 +16462,8 @@
           <t>4879277204</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:48:51</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.53392361111</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16971,10 +16539,8 @@
           <t>4879276148</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:48:21</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.53357638889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17046,10 +16612,8 @@
           <t>4879271122</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:48:13</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.53348379629</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17113,10 +16677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:47:10</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.53275462963</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17188,10 +16750,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:46:34</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.53233796296</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17255,10 +16815,8 @@
           <t>4879261516</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:46:14</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.53210648148</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17327,10 +16885,8 @@
           <t>4879019608</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:46:01</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.53195601852</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17406,10 +16962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:44</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.53175925926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17477,10 +17031,8 @@
           <t>4879253264</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:44</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.53175925926</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17549,10 +17101,8 @@
           <t>4879251709</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:01</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.53126157408</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17631,10 +17181,8 @@
           <t>4879248683</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:45:01</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.53126157408</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17710,10 +17258,8 @@
           <t>4879239794</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:08</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.53064814815</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17789,10 +17335,8 @@
           <t>4879091722</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:44:02</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.53057870371</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17868,10 +17412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:51</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.53045138889</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17947,10 +17489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:39</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.5303125</v>
       </c>
       <c r="I239" t="n">
         <v>3</v>
@@ -18010,10 +17550,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:27</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.53017361111</v>
       </c>
       <c r="I240" t="n">
         <v>8</v>
@@ -18073,10 +17611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:25</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44387.53015046296</v>
       </c>
       <c r="I241" t="n">
         <v>7</v>
@@ -18152,10 +17688,8 @@
           <t>4879229734</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:11</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44387.52998842593</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18219,10 +17753,8 @@
           <t>4879229687</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:43:09</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44387.52996527778</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18298,10 +17830,8 @@
           <t>4879233132</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:41</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44387.52964120371</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18365,10 +17895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:28</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44387.52949074074</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -18444,10 +17972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:42:10</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44387.52928240741</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18519,10 +18045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:59</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44387.52915509259</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18594,10 +18118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:49</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44387.52903935185</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18665,10 +18187,8 @@
           <t>4879226091</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:30</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44387.52881944444</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18744,10 +18264,8 @@
           <t>4879135989</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:41:27</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44387.52878472222</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18811,10 +18329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:22</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44387.5280324074</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18886,10 +18402,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:06</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44387.52784722222</v>
       </c>
       <c r="I252" t="n">
         <v>4</v>
@@ -18961,10 +18475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:05</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44387.52783564815</v>
       </c>
       <c r="I253" t="n">
         <v>60</v>
@@ -19040,10 +18552,8 @@
           <t>4879212849</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:40:01</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44387.52778935185</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19119,10 +18629,8 @@
           <t>4879216536</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:53</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44387.52769675926</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19198,10 +18706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:18</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44387.52729166667</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19269,10 +18775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:13</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44387.5272337963</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19348,10 +18852,8 @@
           <t>4879111686</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:10</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44387.52719907407</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19427,10 +18929,8 @@
           <t>4879204249</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:07</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44387.52716435185</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19498,10 +18998,8 @@
           <t>4879209745</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:39:07</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44387.52716435185</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19577,10 +19075,8 @@
           <t>4879104078</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:50</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44387.5269675926</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19656,10 +19152,8 @@
           <t>4879203330</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:40</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44387.52685185185</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19736,10 +19230,8 @@
           <t>4879151520</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:35</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44387.52679398148</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19815,10 +19307,8 @@
           <t>4879161184</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:13</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44387.52653935185</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19894,10 +19384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:04</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44387.52643518519</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19969,10 +19457,8 @@
           <t>4879175685</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:38:00</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44387.52638888889</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20048,10 +19534,8 @@
           <t>4879101215</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:40</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44387.52615740741</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20119,10 +19603,8 @@
           <t>4879206044</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:34</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44387.52608796296</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20198,10 +19680,8 @@
           <t>4879197399</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:33</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44387.52607638889</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20273,10 +19753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:10</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44387.52581018519</v>
       </c>
       <c r="I270" t="n">
         <v>8</v>
@@ -20344,10 +19822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:37:06</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44387.52576388889</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20415,10 +19891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:21</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44387.52524305556</v>
       </c>
       <c r="I272" t="n">
         <v>4</v>
@@ -20487,10 +19961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:36:18</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44387.52520833333</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20562,10 +20034,8 @@
           <t>4879191949</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:35:49</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44387.52487268519</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20625,10 +20095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:35:35</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44387.52471064815</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20692,10 +20160,8 @@
           <t>4879186528</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:35:24</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44387.52458333333</v>
       </c>
       <c r="I276" t="n">
         <v>11</v>
@@ -20763,10 +20229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:35:03</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44387.52434027778</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20830,10 +20294,8 @@
           <t>4879181278</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:34:42</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44387.52409722222</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20905,10 +20367,8 @@
           <t>4879174090</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:34:15</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44387.52378472222</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20984,10 +20444,8 @@
           <t>4879135989</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:34:08</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44387.5237037037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21063,10 +20521,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:35</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44387.52332175926</v>
       </c>
       <c r="I281" t="n">
         <v>5</v>
@@ -21138,10 +20594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:30</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44387.52326388889</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21217,10 +20671,8 @@
           <t>4879172421</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:27</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44387.52322916667</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21289,10 +20741,8 @@
           <t>4879175685</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:33:06</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44387.52298611111</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21356,10 +20806,8 @@
           <t>4879164510</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:37</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44387.52265046296</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21431,10 +20879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:28</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44387.5225462963</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21502,10 +20948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:23</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44387.52248842592</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21573,10 +21017,8 @@
           <t>4879019608</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:19</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44387.52244212963</v>
       </c>
       <c r="I288" t="n">
         <v>22</v>
@@ -21652,10 +21094,8 @@
           <t>4879163032</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:32:01</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44387.5222337963</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21719,10 +21159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:59</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44387.52221064815</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21798,10 +21236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:15</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44387.52170138889</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21869,10 +21305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:14</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44387.52168981481</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21932,10 +21366,8 @@
           <t>4879161184</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:14</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44387.52168981481</v>
       </c>
       <c r="I293" t="n">
         <v>4</v>
@@ -22003,10 +21435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:31:00</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44387.52152777778</v>
       </c>
       <c r="I294" t="n">
         <v>16</v>
@@ -22070,10 +21500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:59</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44387.52151620371</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -22141,10 +21569,8 @@
           <t>4879156239</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:31</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44387.52119212963</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22212,10 +21638,8 @@
           <t>4879151520</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:15</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44387.52100694444</v>
       </c>
       <c r="I297" t="n">
         <v>7</v>
@@ -22291,10 +21715,8 @@
           <t>4879155371</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:06</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44387.52090277777</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22370,10 +21792,8 @@
           <t>4879151003</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:30:01</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44387.52084490741</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22441,10 +21861,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:49</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44387.52070601852</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22516,10 +21934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:34</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44387.5205324074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22595,10 +22011,8 @@
           <t>4879147146</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:29:30</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44387.52048611111</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22670,10 +22084,8 @@
           <t>4879101215</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:59</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44387.52012731481</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22737,10 +22149,8 @@
           <t>4879145722</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:55</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44387.52008101852</v>
       </c>
       <c r="I304" t="n">
         <v>21</v>
@@ -22816,10 +22226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:54</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44387.52006944444</v>
       </c>
       <c r="I305" t="n">
         <v>8</v>
@@ -22891,10 +22299,8 @@
           <t>4879145539</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:51</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44387.52003472222</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22970,10 +22376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:40</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44387.5199074074</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23045,10 +22449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:36</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44387.51986111111</v>
       </c>
       <c r="I308" t="n">
         <v>2</v>
@@ -23124,10 +22526,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:30</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44387.51979166667</v>
       </c>
       <c r="I309" t="n">
         <v>5</v>
@@ -23203,10 +22603,8 @@
           <t>4879082934</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:26</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44387.51974537037</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23278,10 +22676,8 @@
           <t>4879137184</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:15</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44387.51961805556</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23345,10 +22741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:14</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44387.51960648148</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23416,10 +22810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:28:12</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44387.51958333333</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23496,10 +22888,8 @@
           <t>4879135989</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:42</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44387.51923611111</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23563,10 +22953,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:40</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44387.51921296296</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23634,10 +23022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:39</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44387.51920138889</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23701,10 +23087,8 @@
           <t>4879135766</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:36</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44387.51916666667</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23776,10 +23160,8 @@
           <t>4879135527</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:30</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44387.51909722222</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23853,10 +23235,8 @@
           <t>4879135265</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:23</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44387.5190162037</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23929,10 +23309,8 @@
           <t>4879013932</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:23</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44387.5190162037</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23992,10 +23370,8 @@
           <t>4879127977</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:23</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44387.5190162037</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24063,10 +23439,8 @@
           <t>4879127977</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:22</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44387.51900462963</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24142,10 +23516,8 @@
           <t>4879132049</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:27:20</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44387.51898148148</v>
       </c>
       <c r="I323" t="n">
         <v>27</v>
@@ -24209,10 +23581,8 @@
           <t>4879123819</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:42</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44387.51854166666</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -24284,10 +23654,8 @@
           <t>4879123699</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:39</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44387.51850694444</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24356,10 +23724,8 @@
           <t>4879127977</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:35</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44387.51846064815</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24427,10 +23793,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:28</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44387.51837962963</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24502,10 +23866,8 @@
           <t>4879123215</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:26</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44387.51835648148</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24569,10 +23931,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:22</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44387.51831018519</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24636,10 +23996,8 @@
           <t>4879082934</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:16</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44387.51824074074</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24707,10 +24065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:04</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44387.51810185185</v>
       </c>
       <c r="I331" t="n">
         <v>9</v>
@@ -24774,10 +24130,8 @@
           <t>4879122288</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:26:00</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44387.51805555556</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24853,10 +24207,8 @@
           <t>4879118503</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:49</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44387.51792824074</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24920,10 +24272,8 @@
           <t>4879101215</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:41</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44387.51783564815</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24999,10 +24349,8 @@
           <t>4879101215</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:35</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44387.5177662037</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25070,10 +24418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:10</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44387.51747685186</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25149,10 +24495,8 @@
           <t>4879116982</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:25:09</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44387.51746527778</v>
       </c>
       <c r="I337" t="n">
         <v>28</v>
@@ -25220,10 +24564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:45</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44387.5171875</v>
       </c>
       <c r="I338" t="n">
         <v>2</v>
@@ -25299,10 +24641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:26</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44387.51696759259</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25378,10 +24718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:24</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44387.51694444445</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25453,10 +24791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:12</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44387.51680555556</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25524,10 +24860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:11</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44387.51679398148</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25599,10 +24933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:06</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44387.51673611111</v>
       </c>
       <c r="I343" t="n">
         <v>31</v>
@@ -25666,10 +24998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:03</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44387.51670138889</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25729,10 +25059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:24:02</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44387.51668981482</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25808,10 +25136,8 @@
           <t>4879104078</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:55</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44387.51660879629</v>
       </c>
       <c r="I346" t="n">
         <v>9</v>
@@ -25888,10 +25214,8 @@
           <t>4879111686</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:38</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44387.51641203704</v>
       </c>
       <c r="I347" t="n">
         <v>17</v>
@@ -25967,10 +25291,8 @@
           <t>4879060395</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:33</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44387.51635416667</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -26034,10 +25356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:21</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44387.51621527778</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26101,10 +25421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:15</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44387.51614583333</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -26181,10 +25499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:23:11</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44387.51609953704</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26252,10 +25568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:59</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44387.51596064815</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26323,10 +25637,8 @@
           <t>4879105503</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:52</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44387.51587962963</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26398,10 +25710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:48</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44387.51583333333</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26469,10 +25779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:47</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44387.51582175926</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26544,10 +25852,8 @@
           <t>4879101215</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:41</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44387.51575231482</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -26615,10 +25921,8 @@
           <t>4879101168</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:40</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44387.51574074074</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26694,10 +25998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:37</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44387.51570601852</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26765,10 +26067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:34</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44387.5156712963</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26832,10 +26132,8 @@
           <t>4879094833</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:34</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44387.5156712963</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26911,10 +26209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:31</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44387.51563657408</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26978,10 +26274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:28</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44387.51560185185</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27041,10 +26335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:18</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44387.51548611111</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27116,10 +26408,8 @@
           <t>4879082934</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:15</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44387.51545138889</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27187,10 +26477,8 @@
           <t>4879094115</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:13</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44387.51542824074</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27266,10 +26554,8 @@
           <t>4879091722</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:12</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44387.51541666667</v>
       </c>
       <c r="I366" t="n">
         <v>2</v>
@@ -27337,10 +26623,8 @@
           <t>4879089819</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:22:06</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44387.51534722222</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27404,10 +26688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:59</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44387.51526620371</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27475,10 +26757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:35</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44387.51498842592</v>
       </c>
       <c r="I369" t="n">
         <v>163</v>
@@ -27554,10 +26834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:10</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44387.51469907408</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27634,10 +26912,8 @@
           <t>4879091722</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:07</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44387.51466435185</v>
       </c>
       <c r="I371" t="n">
         <v>2</v>
@@ -27714,10 +26990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:21:03</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44387.51461805555</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27793,10 +27067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:51</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44387.51447916667</v>
       </c>
       <c r="I373" t="n">
         <v>3</v>
@@ -27872,10 +27144,8 @@
           <t>4879079327</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:20:02</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44387.51391203704</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27951,10 +27221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:50</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44387.51377314814</v>
       </c>
       <c r="I375" t="n">
         <v>21</v>
@@ -28018,10 +27286,8 @@
           <t>4879074188</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:44</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44387.51370370371</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28099,10 +27365,8 @@
           <t>4879083356</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:41</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44387.51366898148</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28178,10 +27442,8 @@
           <t>4879082934</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:19:30</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44387.51354166667</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28257,10 +27519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:51</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44387.51309027777</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28320,10 +27580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:47</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44387.51304398148</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28399,10 +27657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:40</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44387.51296296297</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28474,10 +27730,8 @@
           <t>4879071104</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:27</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44387.5128125</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28549,10 +27803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:09</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44387.51260416667</v>
       </c>
       <c r="I383" t="n">
         <v>261</v>
@@ -28620,10 +27872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:18:00</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44387.5125</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28687,10 +27937,8 @@
           <t>4879060395</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:17:18</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44387.51201388889</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28750,10 +27998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:49</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44387.51167824074</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28822,10 +28068,8 @@
           <t>4879060395</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:34</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44387.51150462963</v>
       </c>
       <c r="I387" t="n">
         <v>3</v>
@@ -28901,10 +28145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:27</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44387.51142361111</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28972,10 +28214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:16:08</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44387.5112037037</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -29043,10 +28283,8 @@
           <t>4879060395</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:57</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44387.51107638889</v>
       </c>
       <c r="I390" t="n">
         <v>80</v>
@@ -29118,10 +28356,8 @@
           <t>4879055312</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:56</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44387.51106481482</v>
       </c>
       <c r="I391" t="n">
         <v>2</v>
@@ -29193,10 +28429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:35</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44387.51082175926</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29264,10 +28498,8 @@
           <t>4879052827</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:15:01</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44387.51042824074</v>
       </c>
       <c r="I393" t="n">
         <v>5</v>
@@ -29343,10 +28575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:32</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44387.51009259259</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29422,10 +28652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:32</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44387.51009259259</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29497,10 +28725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:24</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44387.51</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29572,10 +28798,8 @@
           <t>4879041206</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:14:01</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44387.50973379629</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29647,10 +28871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:53</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44387.5096412037</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29718,10 +28940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:52</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44387.50962962963</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29789,10 +29009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:40</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44387.50949074074</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29860,10 +29078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:13:13</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44387.50917824074</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29939,10 +29155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:58</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44387.50900462963</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -30018,10 +29232,8 @@
           <t>4879028607</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:48</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44387.50888888889</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30097,10 +29309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:38</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44387.50877314815</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30168,10 +29378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:31</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44387.50869212963</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30239,10 +29447,8 @@
           <t>4879037060</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:31</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44387.50869212963</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30318,10 +29524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:30</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44387.50868055555</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30385,10 +29589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:29</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44387.50866898148</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -30467,10 +29669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:22</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44387.50858796296</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30546,10 +29746,8 @@
           <t>4879031725</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:12:05</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44387.5083912037</v>
       </c>
       <c r="I410" t="n">
         <v>2</v>
@@ -30625,10 +29823,8 @@
           <t>4879031514</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:59</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44387.50832175926</v>
       </c>
       <c r="I411" t="n">
         <v>17</v>
@@ -30704,10 +29900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:49</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44387.50820601852</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30775,10 +29969,8 @@
           <t>4879030245</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:26</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44387.50793981482</v>
       </c>
       <c r="I413" t="n">
         <v>17</v>
@@ -30846,10 +30038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:13</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44387.50778935185</v>
       </c>
       <c r="I414" t="n">
         <v>115</v>
@@ -30925,10 +30115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:09</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44387.50774305555</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30988,10 +30176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:09</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44387.50774305555</v>
       </c>
       <c r="I416" t="n">
         <v>548</v>
@@ -31068,10 +30254,8 @@
           <t>4879019608</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:08</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44387.50773148148</v>
       </c>
       <c r="I417" t="n">
         <v>139</v>
@@ -31139,10 +30323,8 @@
           <t>4879014781</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:11:00</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44387.50763888889</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31218,10 +30400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:43</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44387.50744212963</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31293,10 +30473,8 @@
           <t>4879013932</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:36</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44387.50736111111</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31372,10 +30550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:29</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44387.50728009259</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31447,10 +30623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:21</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44387.5071875</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31522,10 +30696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:10</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44387.50706018518</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31589,10 +30761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:10:06</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44387.50701388889</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31667,10 +30837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:51</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44387.50684027778</v>
       </c>
       <c r="I425" t="n">
         <v>323</v>
@@ -31738,10 +30906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:45</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44387.50677083333</v>
       </c>
       <c r="I426" t="n">
         <v>5</v>
@@ -31809,10 +30975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:44</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44387.50675925926</v>
       </c>
       <c r="I427" t="n">
         <v>60</v>
@@ -31876,10 +31040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:43</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44387.50674768518</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31939,10 +31101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:38</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44387.50668981481</v>
       </c>
       <c r="I429" t="n">
         <v>947</v>
@@ -32018,10 +31178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:37</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44387.50667824074</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -32085,10 +31243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:31</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44387.5066087963</v>
       </c>
       <c r="I431" t="n">
         <v>15</v>
@@ -32167,10 +31323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:30</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44387.50659722222</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32238,10 +31392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:29</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44387.50658564815</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -32313,10 +31465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:19</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44387.50646990741</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -32392,10 +31542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:18</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44387.50645833334</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32471,10 +31619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:16</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44387.50643518518</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32538,10 +31684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:14</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44387.50641203704</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32605,10 +31749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:13</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44387.50640046296</v>
       </c>
       <c r="I438" t="n">
         <v>1</v>
@@ -32685,10 +31827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:12</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44387.50638888889</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32760,10 +31900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:08</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44387.50634259259</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32835,10 +31973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:08</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44387.50634259259</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32914,10 +32050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:04</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44387.5062962963</v>
       </c>
       <c r="I442" t="n">
         <v>4</v>
@@ -32993,10 +32127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:02</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44387.50627314814</v>
       </c>
       <c r="I443" t="n">
         <v>4</v>
@@ -33072,10 +32204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:01</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44387.50626157408</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33151,10 +32281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:00</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44387.50625</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33218,10 +32346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:57</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44387.50621527778</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33281,10 +32407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:48</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44387.50611111111</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33348,10 +32472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:46</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44387.50608796296</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33419,10 +32541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:45</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44387.50607638889</v>
       </c>
       <c r="I449" t="n">
         <v>154</v>
@@ -33486,10 +32606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:42</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44387.50604166667</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33557,10 +32675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:42</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44387.50604166667</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33632,10 +32748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:38</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44387.50599537037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33703,10 +32817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:08:36</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44387.50597222222</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
